--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B3111-1BF7-4AEC-94D8-82F8372D38E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DE013C-694B-4039-AF59-7B15466CA590}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,132 +205,145 @@
     <t>d_1 - d_xxx</t>
   </si>
   <si>
+    <t>"HOBBIES_1_001": dept_id + "_item"</t>
+  </si>
+  <si>
+    <t>"CA"</t>
+  </si>
+  <si>
+    <t>store_id</t>
+  </si>
+  <si>
+    <t>"HOBBIES"</t>
+  </si>
+  <si>
+    <t>"HOBBIES_1": cat_id + "_dept"</t>
+  </si>
+  <si>
+    <t>"CA_1": state_id +"_store"</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>30490</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>wm_yr_wk</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>2011-01-29 to 2016-06-19</t>
+  </si>
+  <si>
+    <t>wday</t>
+  </si>
+  <si>
+    <t>same as weekday</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>event_name_1</t>
+  </si>
+  <si>
+    <t>event_type_1</t>
+  </si>
+  <si>
+    <t>event_name_2</t>
+  </si>
+  <si>
+    <t>event_type_2</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5% filled</t>
+  </si>
+  <si>
+    <t>snap_CA</t>
+  </si>
+  <si>
+    <t>snap_TX</t>
+  </si>
+  <si>
+    <t>snap_WI</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>sell_price</t>
+  </si>
+  <si>
+    <t>75% are 0</t>
+  </si>
+  <si>
+    <t>NOT USE</t>
+  </si>
+  <si>
+    <t>"11522": 1 + year + week</t>
+  </si>
+  <si>
     <t>"HOBBIES_1_001_CA_1_validation":
-item_id + "_" + store_id +  "_validation/train</t>
-  </si>
-  <si>
-    <t>"HOBBIES_1_001": dept_id + "_item"</t>
-  </si>
-  <si>
-    <t>"CA"</t>
-  </si>
-  <si>
-    <t>store_id</t>
-  </si>
-  <si>
-    <t>"HOBBIES"</t>
-  </si>
-  <si>
-    <t>"HOBBIES_1": cat_id + "_dept"</t>
-  </si>
-  <si>
-    <t>"CA_1": state_id +"_store"</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>30490</t>
-  </si>
-  <si>
-    <t>3049</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>calendar</t>
-  </si>
-  <si>
-    <t>wm_yr_wk</t>
-  </si>
-  <si>
-    <t>"11522": 1"+ year + week</t>
-  </si>
-  <si>
-    <t>weekday</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>2011-01-29 to 2016-06-19</t>
-  </si>
-  <si>
-    <t>wday</t>
-  </si>
-  <si>
-    <t>same as weekday</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>event_name_1</t>
-  </si>
-  <si>
-    <t>event_type_1</t>
-  </si>
-  <si>
-    <t>event_name_2</t>
-  </si>
-  <si>
-    <t>event_type_2</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5% filled</t>
-  </si>
-  <si>
-    <t>0.25% filled</t>
-  </si>
-  <si>
-    <t>snap_CA</t>
-  </si>
-  <si>
-    <t>snap_TX</t>
-  </si>
-  <si>
-    <t>snap_WI</t>
-  </si>
-  <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>sell_price</t>
-  </si>
-  <si>
-    <t>0.01 - 107</t>
-  </si>
-  <si>
-    <t>75% are 0</t>
-  </si>
-  <si>
-    <t>NOT USE</t>
+item_id + "_" + store_id +  "_validation/train"</t>
+  </si>
+  <si>
+    <t>0.25% filled, sometimes mixed up with event_name_1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.01 - 107
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If not available then no demand!</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +353,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -728,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,10 +793,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -787,10 +807,10 @@
         <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -801,10 +821,10 @@
         <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -815,24 +835,24 @@
         <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,10 +863,10 @@
         <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -857,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>60</v>
@@ -865,18 +885,18 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -885,52 +905,52 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -941,7 +961,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -952,7 +972,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -965,27 +985,27 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>22</v>
@@ -993,21 +1013,21 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -1021,43 +1041,43 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
@@ -1073,21 +1093,21 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DE013C-694B-4039-AF59-7B15466CA590}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45BC4F1-DB7B-4097-9D26-E56B3A75074A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-119" yWindow="-119" windowWidth="28741" windowHeight="15677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
   <si>
     <t>table</t>
   </si>
@@ -82,33 +82,18 @@
     <t>week</t>
   </si>
   <si>
-    <t>Remove outlier</t>
-  </si>
-  <si>
-    <t>Maybe also for holiday_</t>
-  </si>
-  <si>
     <t>dito</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>onpromotion_lag1d</t>
-  </si>
-  <si>
     <t>other lags</t>
   </si>
   <si>
-    <t>need different processing for h=1-7 and h=8-14</t>
-  </si>
-  <si>
     <t>onpromotion_lag7d</t>
   </si>
   <si>
-    <t>onpromotion_avg7d</t>
-  </si>
-  <si>
     <t>quarter</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t>fold</t>
   </si>
   <si>
-    <t>zsales_log: Z-Score of log-sales</t>
-  </si>
-  <si>
     <t>myfold</t>
   </si>
   <si>
@@ -139,48 +121,21 @@
     <t>"original" train-test</t>
   </si>
   <si>
-    <t>zsales_log_lag1d</t>
-  </si>
-  <si>
-    <t>zsales_log_lag7d</t>
-  </si>
-  <si>
-    <t>zsales_log_avg7d</t>
-  </si>
-  <si>
     <t>zsales_log_avg28d</t>
   </si>
   <si>
-    <t>day_ofholiday</t>
-  </si>
-  <si>
     <t>day_ofpromotion</t>
   </si>
   <si>
     <t>month (need different processing ...)</t>
   </si>
   <si>
-    <t>zsales_log_avg4sameweekdays</t>
-  </si>
-  <si>
-    <t>onpromotion_avg4sameweekdays</t>
-  </si>
-  <si>
-    <t>zsales_log_avg12sameweekdays</t>
-  </si>
-  <si>
-    <t>onpromotion_avg12sameweekdays</t>
-  </si>
-  <si>
     <t>zsales_log_avg24sameweekdays</t>
   </si>
   <si>
     <t>cate</t>
   </si>
   <si>
-    <t>(unit_sales_log - mean_unit_sales_log) / std_unit_sales_log</t>
-  </si>
-  <si>
     <t>-&gt; 8,15</t>
   </si>
   <si>
@@ -316,34 +271,63 @@
     <t>"11522": 1 + year + week</t>
   </si>
   <si>
+    <t>0.25% filled, sometimes mixed up with event_name_1</t>
+  </si>
+  <si>
+    <t>sell_price_isna</t>
+  </si>
+  <si>
+    <t>0.01 - 107</t>
+  </si>
+  <si>
     <t>"HOBBIES_1_001_CA_1_validation":
-item_id + "_" + store_id +  "_validation/train"</t>
-  </si>
-  <si>
-    <t>0.25% filled, sometimes mixed up with event_name_1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0.01 - 107
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If not available then no demand!</t>
-    </r>
+item_id + "_" + store_id +  "_validation"</t>
+  </si>
+  <si>
+    <t>NO demand if sell_price is missing ("not on stock")</t>
+  </si>
+  <si>
+    <t>anydemand</t>
+  </si>
+  <si>
+    <t>if demand&gt;0</t>
+  </si>
+  <si>
+    <t>target_lag1d</t>
+  </si>
+  <si>
+    <t>on_promotion</t>
+  </si>
+  <si>
+    <t>take care of missing prices</t>
+  </si>
+  <si>
+    <t>add holidays?</t>
+  </si>
+  <si>
+    <t>day_of_holiday</t>
+  </si>
+  <si>
+    <t>target_lag7d</t>
+  </si>
+  <si>
+    <t>target_avg7d</t>
+  </si>
+  <si>
+    <t>need different processing for h=1-7, h=8-14 etc.</t>
+  </si>
+  <si>
+    <t>target_avg4sameweekdays</t>
+  </si>
+  <si>
+    <t>target_avg12sameweekdays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,26 +341,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -391,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -400,12 +371,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -746,28 +711,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="24.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="58.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="2" width="10.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="33.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="58.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -782,9 +750,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -793,110 +761,110 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -905,548 +873,476 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1456,7 +1352,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1468,7 +1364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45BC4F1-DB7B-4097-9D26-E56B3A75074A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F566CA0-F8F5-44D2-81A3-E530FAA09B3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-119" yWindow="-119" windowWidth="28741" windowHeight="15677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="104">
   <si>
     <t>table</t>
   </si>
@@ -91,9 +91,6 @@
     <t>other lags</t>
   </si>
   <si>
-    <t>onpromotion_lag7d</t>
-  </si>
-  <si>
     <t>quarter</t>
   </si>
   <si>
@@ -121,22 +118,13 @@
     <t>"original" train-test</t>
   </si>
   <si>
-    <t>zsales_log_avg28d</t>
-  </si>
-  <si>
     <t>day_ofpromotion</t>
   </si>
   <si>
     <t>month (need different processing ...)</t>
   </si>
   <si>
-    <t>zsales_log_avg24sameweekdays</t>
-  </si>
-  <si>
     <t>cate</t>
-  </si>
-  <si>
-    <t>-&gt; 8,15</t>
   </si>
   <si>
     <t>sales</t>
@@ -284,18 +272,12 @@
 item_id + "_" + store_id +  "_validation"</t>
   </si>
   <si>
-    <t>NO demand if sell_price is missing ("not on stock")</t>
-  </si>
-  <si>
     <t>anydemand</t>
   </si>
   <si>
     <t>if demand&gt;0</t>
   </si>
   <si>
-    <t>target_lag1d</t>
-  </si>
-  <si>
     <t>on_promotion</t>
   </si>
   <si>
@@ -308,26 +290,56 @@
     <t>day_of_holiday</t>
   </si>
   <si>
-    <t>target_lag7d</t>
-  </si>
-  <si>
-    <t>target_avg7d</t>
-  </si>
-  <si>
     <t>need different processing for h=1-7, h=8-14 etc.</t>
   </si>
   <si>
-    <t>target_avg4sameweekdays</t>
-  </si>
-  <si>
-    <t>target_avg12sameweekdays</t>
+    <t>demand_lag_horizon</t>
+  </si>
+  <si>
+    <t>demand_lag_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_avg7d</t>
+  </si>
+  <si>
+    <t>demand_avg4sameweekdays</t>
+  </si>
+  <si>
+    <t>demand_avg12sameweekdays</t>
+  </si>
+  <si>
+    <t>demand_avg28d</t>
+  </si>
+  <si>
+    <t>demand_avg24sameweekdays</t>
+  </si>
+  <si>
+    <t>onpromotion_lag_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_median</t>
+  </si>
+  <si>
+    <t>demand_iqr</t>
+  </si>
+  <si>
+    <t>maybe use for normalizing: median per id</t>
+  </si>
+  <si>
+    <t>maybe use for normalizing: IQR per id</t>
+  </si>
+  <si>
+    <t>NO demand if sell_price is missing ("not on stock") -&gt; remove records</t>
+  </si>
+  <si>
+    <t>derived again</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,16 +353,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -358,11 +396,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -370,14 +423,54 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -714,10 +807,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -725,622 +818,988 @@
     <col min="1" max="2" width="10.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="33.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="58.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="1" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F566CA0-F8F5-44D2-81A3-E530FAA09B3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0EA8B4-958E-4FB8-98A5-406633BCA89B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-119" yWindow="-119" windowWidth="28741" windowHeight="15677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="137">
   <si>
     <t>table</t>
   </si>
@@ -88,18 +88,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>other lags</t>
-  </si>
-  <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>half year</t>
-  </si>
-  <si>
-    <t>check PACF of averaged series which is deseasonlized</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
@@ -118,12 +106,6 @@
     <t>"original" train-test</t>
   </si>
   <si>
-    <t>day_ofpromotion</t>
-  </si>
-  <si>
-    <t>month (need different processing ...)</t>
-  </si>
-  <si>
     <t>cate</t>
   </si>
   <si>
@@ -229,9 +211,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>5% filled</t>
-  </si>
-  <si>
     <t>snap_CA</t>
   </si>
   <si>
@@ -257,9 +236,6 @@
   </si>
   <si>
     <t>"11522": 1 + year + week</t>
-  </si>
-  <si>
-    <t>0.25% filled, sometimes mixed up with event_name_1</t>
   </si>
   <si>
     <t>sell_price_isna</t>
@@ -278,18 +254,9 @@
     <t>if demand&gt;0</t>
   </si>
   <si>
-    <t>on_promotion</t>
-  </si>
-  <si>
     <t>take care of missing prices</t>
   </si>
   <si>
-    <t>add holidays?</t>
-  </si>
-  <si>
-    <t>day_of_holiday</t>
-  </si>
-  <si>
     <t>need different processing for h=1-7, h=8-14 etc.</t>
   </si>
   <si>
@@ -299,24 +266,6 @@
     <t>demand_lag_sameweekday</t>
   </si>
   <si>
-    <t>demand_avg7d</t>
-  </si>
-  <si>
-    <t>demand_avg4sameweekdays</t>
-  </si>
-  <si>
-    <t>demand_avg12sameweekdays</t>
-  </si>
-  <si>
-    <t>demand_avg28d</t>
-  </si>
-  <si>
-    <t>demand_avg24sameweekdays</t>
-  </si>
-  <si>
-    <t>onpromotion_lag_sameweekday</t>
-  </si>
-  <si>
     <t>demand_median</t>
   </si>
   <si>
@@ -333,13 +282,165 @@
   </si>
   <si>
     <t>derived again</t>
+  </si>
+  <si>
+    <t>merge with other snap by state</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>merge of snap_CA, snap_TX, snap_WI</t>
+  </si>
+  <si>
+    <t>next_event</t>
+  </si>
+  <si>
+    <t>prev_event</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>=1 if any event</t>
+  </si>
+  <si>
+    <t>days_before_event</t>
+  </si>
+  <si>
+    <t>days_after_event</t>
+  </si>
+  <si>
+    <t>5% filled
+merge with event_name_2</t>
+  </si>
+  <si>
+    <t>0.25% filled, sometimes mixed up with event_name_1
+merge with event_name_1</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>event_type</t>
+  </si>
+  <si>
+    <t>merged by event_name_1 and _2</t>
+  </si>
+  <si>
+    <t>merged by event_type_1 and _2</t>
+  </si>
+  <si>
+    <t>holiday_name</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>next_holiday</t>
+  </si>
+  <si>
+    <t>prev_holiday</t>
+  </si>
+  <si>
+    <t>days_before_holiday</t>
+  </si>
+  <si>
+    <t>days_after_holiday</t>
+  </si>
+  <si>
+    <t>["ValentinesDay","StPatricksDay","Easter","Mother's day","Father's day", "IndependenceDay", "Halloween","Thanksgiving","Christmas", "NewYear"]</t>
+  </si>
+  <si>
+    <t>=1 if any holiday</t>
+  </si>
+  <si>
+    <t>demand_avg1week</t>
+  </si>
+  <si>
+    <t>demand_avg1quarter</t>
+  </si>
+  <si>
+    <t>demand_avg1halfyear</t>
+  </si>
+  <si>
+    <t>demand_avg1year</t>
+  </si>
+  <si>
+    <t>demand_avg1month</t>
+  </si>
+  <si>
+    <t>day_of_snap</t>
+  </si>
+  <si>
+    <t>snap_lag_sameweekday</t>
+  </si>
+  <si>
+    <t>is in day_of_month</t>
+  </si>
+  <si>
+    <t>_samesnap????</t>
+  </si>
+  <si>
+    <t>snap_avg1week</t>
+  </si>
+  <si>
+    <t>demand_lag_horizon_plus1</t>
+  </si>
+  <si>
+    <t>demand_lag_horizon_plus2</t>
+  </si>
+  <si>
+    <t>demand_lag_horizon_plus3</t>
+  </si>
+  <si>
+    <t>demand_lag_horizon_plus4</t>
+  </si>
+  <si>
+    <t>demand_lag_horizon_plus5</t>
+  </si>
+  <si>
+    <t>demand_lag_horizon_plus6</t>
+  </si>
+  <si>
+    <t>snap_lag_horizon</t>
+  </si>
+  <si>
+    <t>price_ratio_to_90d_rolling</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>demand_avg1month_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_avg1quarter_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_avg1halfyear_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_avg1year_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_avg1month_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_avg1quarter_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_avg1halfyear_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_avg1year_sameweekday_samesnap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +458,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -441,11 +549,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -460,13 +574,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -807,19 +914,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1"/>
     <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="77.28515625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -845,10 +952,10 @@
     </row>
     <row r="2" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
@@ -857,156 +964,156 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -1015,200 +1122,200 @@
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>8</v>
@@ -1219,73 +1326,73 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
@@ -1295,13 +1402,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
@@ -1311,13 +1418,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>5</v>
@@ -1327,20 +1434,20 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,17 +1455,17 @@
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,17 +1473,17 @@
         <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,17 +1491,17 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1402,17 +1509,17 @@
         <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,17 +1527,17 @@
         <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,17 +1545,17 @@
         <v>7</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,83 +1563,97 @@
         <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1540,16 +1661,16 @@
         <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -1558,17 +1679,15 @@
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1576,10 +1695,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>4</v>
@@ -1587,22 +1706,24 @@
       <c r="E41" s="6"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
-        <v>89</v>
+        <v>28</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,187 +1731,567 @@
         <v>7</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B79" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="B80" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C80" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="5"/>
+      <c r="B81" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0EA8B4-958E-4FB8-98A5-406633BCA89B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8619AE-AEC8-4666-BA62-585FBE0BC550}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-119" yWindow="-119" windowWidth="28741" windowHeight="15677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="141">
   <si>
     <t>table</t>
   </si>
@@ -358,18 +358,6 @@
     <t>demand_avg1week</t>
   </si>
   <si>
-    <t>demand_avg1quarter</t>
-  </si>
-  <si>
-    <t>demand_avg1halfyear</t>
-  </si>
-  <si>
-    <t>demand_avg1year</t>
-  </si>
-  <si>
-    <t>demand_avg1month</t>
-  </si>
-  <si>
     <t>day_of_snap</t>
   </si>
   <si>
@@ -379,9 +367,6 @@
     <t>is in day_of_month</t>
   </si>
   <si>
-    <t>_samesnap????</t>
-  </si>
-  <si>
     <t>snap_avg1week</t>
   </si>
   <si>
@@ -412,28 +397,55 @@
     <t>maybe</t>
   </si>
   <si>
-    <t>demand_avg1month_sameweekday</t>
-  </si>
-  <si>
-    <t>demand_avg1quarter_sameweekday</t>
-  </si>
-  <si>
-    <t>demand_avg1halfyear_sameweekday</t>
-  </si>
-  <si>
-    <t>demand_avg1year_sameweekday</t>
-  </si>
-  <si>
-    <t>demand_avg1month_sameweekday_samesnap</t>
-  </si>
-  <si>
-    <t>demand_avg1quarter_sameweekday_samesnap</t>
-  </si>
-  <si>
-    <t>demand_avg1halfyear_sameweekday_samesnap</t>
-  </si>
-  <si>
-    <t>demand_avg1year_sameweekday_samesnap</t>
+    <t>demand_avg2week</t>
+  </si>
+  <si>
+    <t>demand_avg4week</t>
+  </si>
+  <si>
+    <t>demand_avg12week</t>
+  </si>
+  <si>
+    <t>snap is same per month -&gt; NO snap_avg4week</t>
+  </si>
+  <si>
+    <t>2-week</t>
+  </si>
+  <si>
+    <t>approx. Month</t>
+  </si>
+  <si>
+    <t>approx. Quarter</t>
+  </si>
+  <si>
+    <t>demand_avg2week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_avg4week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_avg12week_sameweekday</t>
+  </si>
+  <si>
+    <t>approx. Year</t>
+  </si>
+  <si>
+    <t>demand_avg48week</t>
+  </si>
+  <si>
+    <t>demand_avg48week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_avg2week_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_avg4week_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_avg12week_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_avg48week_sameweekday_samesnap</t>
   </si>
 </sst>
 </file>
@@ -464,7 +476,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -916,8 +927,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -1951,22 +1962,30 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C56" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C57" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>4</v>
@@ -1975,10 +1994,14 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C58" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>4</v>
@@ -1987,10 +2010,14 @@
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C59" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>4</v>
@@ -1999,10 +2026,14 @@
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C60" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>4</v>
@@ -2011,10 +2042,14 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C61" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>4</v>
@@ -2023,10 +2058,14 @@
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C62" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>4</v>
@@ -2053,10 +2092,14 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C64" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>28</v>
@@ -2065,8 +2108,12 @@
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C65" s="10" t="s">
         <v>110</v>
       </c>
@@ -2077,64 +2124,94 @@
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C66" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C67" s="10" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C68" s="10" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C69" s="10" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C70" s="10" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -2144,112 +2221,148 @@
         <v>22</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="6"/>
-      <c r="F71" s="5" t="s">
-        <v>118</v>
+      <c r="F71" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C72" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C73" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="5" t="s">
-        <v>118</v>
+      <c r="F73" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+      <c r="A74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C74" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="6"/>
-      <c r="F74" s="5" t="s">
-        <v>118</v>
+      <c r="F74" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5" t="s">
-        <v>133</v>
+      <c r="A75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="5"/>
+      <c r="F75" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C76" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -2266,7 +2379,7 @@
         <v>15</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -2282,12 +2395,12 @@
         <v>70</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
       <c r="F81" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8619AE-AEC8-4666-BA62-585FBE0BC550}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2FCD35-9D1B-4BFB-9317-B214CD05B09E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-119" yWindow="-119" windowWidth="28741" windowHeight="15677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="2375" windowWidth="21377" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$84</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="145">
   <si>
     <t>table</t>
   </si>
@@ -257,15 +257,6 @@
     <t>take care of missing prices</t>
   </si>
   <si>
-    <t>need different processing for h=1-7, h=8-14 etc.</t>
-  </si>
-  <si>
-    <t>demand_lag_horizon</t>
-  </si>
-  <si>
-    <t>demand_lag_sameweekday</t>
-  </si>
-  <si>
     <t>demand_median</t>
   </si>
   <si>
@@ -361,36 +352,12 @@
     <t>day_of_snap</t>
   </si>
   <si>
-    <t>snap_lag_sameweekday</t>
-  </si>
-  <si>
     <t>is in day_of_month</t>
   </si>
   <si>
     <t>snap_avg1week</t>
   </si>
   <si>
-    <t>demand_lag_horizon_plus1</t>
-  </si>
-  <si>
-    <t>demand_lag_horizon_plus2</t>
-  </si>
-  <si>
-    <t>demand_lag_horizon_plus3</t>
-  </si>
-  <si>
-    <t>demand_lag_horizon_plus4</t>
-  </si>
-  <si>
-    <t>demand_lag_horizon_plus5</t>
-  </si>
-  <si>
-    <t>demand_lag_horizon_plus6</t>
-  </si>
-  <si>
-    <t>snap_lag_horizon</t>
-  </si>
-  <si>
     <t>price_ratio_to_90d_rolling</t>
   </si>
   <si>
@@ -446,6 +413,51 @@
   </si>
   <si>
     <t>demand_avg48week_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_lag0</t>
+  </si>
+  <si>
+    <t>snap_lag0</t>
+  </si>
+  <si>
+    <t>demand_lag1</t>
+  </si>
+  <si>
+    <t>demand_lag2</t>
+  </si>
+  <si>
+    <t>demand_lag3</t>
+  </si>
+  <si>
+    <t>demand_lag4</t>
+  </si>
+  <si>
+    <t>demand_lag5</t>
+  </si>
+  <si>
+    <t>demand_lag6</t>
+  </si>
+  <si>
+    <t>snap_lag1</t>
+  </si>
+  <si>
+    <t>snap_lag2</t>
+  </si>
+  <si>
+    <t>snap_lag3</t>
+  </si>
+  <si>
+    <t>snap_lag4</t>
+  </si>
+  <si>
+    <t>snap_lag5</t>
+  </si>
+  <si>
+    <t>snap_lag6</t>
+  </si>
+  <si>
+    <t>snap_avg2week</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,24 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -925,10 +954,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1205,7 @@
         <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,7 +1245,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,7 +1265,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1312,7 +1341,7 @@
         <v>62</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,14 +1516,14 @@
         <v>22</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,14 +1534,14 @@
         <v>22</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,7 +1595,7 @@
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,7 +1606,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>28</v>
@@ -1586,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,7 +1626,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>28</v>
@@ -1606,7 +1635,7 @@
         <v>61</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,7 +1646,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>28</v>
@@ -1626,7 +1655,7 @@
         <v>62</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,7 +1666,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>28</v>
@@ -1646,7 +1675,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,7 +1686,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>28</v>
@@ -1675,7 +1704,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>28</v>
@@ -1693,7 +1722,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>4</v>
@@ -1709,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>4</v>
@@ -1725,7 +1754,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>28</v>
@@ -1734,7 +1763,7 @@
         <v>47</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,7 +1774,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>28</v>
@@ -1754,7 +1783,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,7 +1794,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>28</v>
@@ -1783,7 +1812,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>28</v>
@@ -1801,7 +1830,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>4</v>
@@ -1817,7 +1846,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>4</v>
@@ -1953,7 +1982,7 @@
         <v>22</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>4</v>
@@ -1969,10 +1998,10 @@
         <v>22</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="5"/>
@@ -1985,7 +2014,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>4</v>
@@ -2001,7 +2030,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>4</v>
@@ -2017,7 +2046,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>4</v>
@@ -2033,7 +2062,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>4</v>
@@ -2049,7 +2078,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>4</v>
@@ -2065,10 +2094,10 @@
         <v>22</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="5"/>
@@ -2081,15 +2110,13 @@
         <v>22</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -2098,14 +2125,14 @@
       <c r="B64" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>112</v>
+      <c r="C64" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -2114,14 +2141,14 @@
       <c r="B65" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>110</v>
+      <c r="C65" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
@@ -2130,16 +2157,14 @@
       <c r="B66" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>114</v>
+      <c r="C66" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E66" s="6"/>
-      <c r="F66" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -2148,16 +2173,14 @@
       <c r="B67" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>124</v>
+      <c r="C67" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
@@ -2166,16 +2189,14 @@
       <c r="B68" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>125</v>
+      <c r="C68" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E68" s="6"/>
-      <c r="F68" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
@@ -2185,15 +2206,13 @@
         <v>22</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -2203,14 +2222,14 @@
         <v>22</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,15 +2239,15 @@
       <c r="B71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>131</v>
+      <c r="C71" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="6"/>
-      <c r="F71" s="6" t="s">
-        <v>128</v>
+      <c r="F71" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2239,14 +2258,14 @@
         <v>22</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="5" t="s">
-        <v>129</v>
+      <c r="F72" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,14 +2276,14 @@
         <v>22</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2275,14 +2294,14 @@
         <v>22</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2293,14 +2312,14 @@
         <v>22</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2310,15 +2329,15 @@
       <c r="B76" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>138</v>
+      <c r="C76" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E76" s="6"/>
-      <c r="F76" s="5" t="s">
-        <v>129</v>
+      <c r="F76" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2329,14 +2348,14 @@
         <v>22</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="6"/>
-      <c r="F77" s="6" t="s">
-        <v>130</v>
+      <c r="F77" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,66 +2366,164 @@
         <v>22</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="8" t="s">
+      <c r="A79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E81" s="6"/>
       <c r="F81" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D76:D1048576 D1:D74">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"metr"</formula>
     </cfRule>

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2FCD35-9D1B-4BFB-9317-B214CD05B09E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2375" windowWidth="21377" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2376" windowWidth="21372" windowHeight="11268"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -13,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$85</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="145">
   <si>
     <t>table</t>
   </si>
@@ -254,9 +253,6 @@
     <t>if demand&gt;0</t>
   </si>
   <si>
-    <t>take care of missing prices</t>
-  </si>
-  <si>
     <t>demand_median</t>
   </si>
   <si>
@@ -358,9 +354,6 @@
     <t>snap_avg1week</t>
   </si>
   <si>
-    <t>price_ratio_to_90d_rolling</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
@@ -458,12 +451,18 @@
   </si>
   <si>
     <t>snap_avg2week</t>
+  </si>
+  <si>
+    <t>take care of missing prices, i.e. remove</t>
+  </si>
+  <si>
+    <t>price_ratio_to_8week_rolling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -576,6 +575,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,9 +633,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -671,9 +673,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,26 +708,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,26 +743,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -950,27 +918,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="2" width="10.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -1030,7 +998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -1050,7 +1018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -1070,7 +1038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -1090,7 +1058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -1110,7 +1078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -1130,7 +1098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1148,7 +1116,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -1168,7 +1136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1188,7 +1156,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1205,10 +1173,10 @@
         <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1228,7 +1196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -1245,10 +1213,10 @@
         <v>56</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -1265,10 +1233,10 @@
         <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -1301,10 +1269,10 @@
         <v>61</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1341,10 +1309,10 @@
         <v>62</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1364,7 +1332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1381,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -1404,7 +1372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -1424,7 +1392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>67</v>
       </c>
@@ -1440,7 +1408,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>67</v>
       </c>
@@ -1456,7 +1424,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -1472,7 +1440,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -1490,7 +1458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
@@ -1516,17 +1484,17 @@
         <v>22</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -1534,17 +1502,17 @@
         <v>22</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1562,7 +1530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -1595,10 +1563,10 @@
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1574,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>28</v>
@@ -1615,10 +1583,10 @@
         <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1626,7 +1594,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>28</v>
@@ -1635,10 +1603,10 @@
         <v>61</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1614,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>28</v>
@@ -1655,10 +1623,10 @@
         <v>62</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1666,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>28</v>
@@ -1675,10 +1643,10 @@
         <v>8</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1654,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>28</v>
@@ -1696,7 +1664,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>28</v>
@@ -1714,7 +1682,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1690,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>4</v>
@@ -1730,7 +1698,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1706,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>4</v>
@@ -1754,7 +1722,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>28</v>
@@ -1763,10 +1731,10 @@
         <v>47</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>28</v>
@@ -1783,10 +1751,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1762,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>28</v>
@@ -1804,7 +1772,7 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +1780,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>28</v>
@@ -1822,7 +1790,7 @@
       </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +1798,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>4</v>
@@ -1838,7 +1806,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>7</v>
       </c>
@@ -1846,7 +1814,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>4</v>
@@ -1854,7 +1822,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1840,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
@@ -1890,7 +1858,7 @@
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1874,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +1890,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -1938,7 +1906,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1924,7 @@
       </c>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
@@ -1974,7 +1942,7 @@
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>4</v>
@@ -1990,7 +1958,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>4</v>
@@ -2006,7 +1974,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +1982,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>4</v>
@@ -2022,7 +1990,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +1998,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>4</v>
@@ -2038,7 +2006,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2014,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>4</v>
@@ -2054,7 +2022,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>7</v>
       </c>
@@ -2062,7 +2030,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>4</v>
@@ -2070,7 +2038,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
@@ -2078,7 +2046,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>4</v>
@@ -2086,7 +2054,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -2094,7 +2062,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>28</v>
@@ -2102,7 +2070,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2078,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>28</v>
@@ -2118,7 +2086,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
@@ -2126,7 +2094,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>28</v>
@@ -2134,7 +2102,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>7</v>
       </c>
@@ -2142,7 +2110,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>28</v>
@@ -2150,7 +2118,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>7</v>
       </c>
@@ -2158,7 +2126,7 @@
         <v>22</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>28</v>
@@ -2166,7 +2134,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>7</v>
       </c>
@@ -2174,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>28</v>
@@ -2182,7 +2150,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2158,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>28</v>
@@ -2198,7 +2166,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +2174,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>4</v>
@@ -2214,7 +2182,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
@@ -2222,17 +2190,17 @@
         <v>22</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>7</v>
       </c>
@@ -2240,17 +2208,17 @@
         <v>22</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
@@ -2258,17 +2226,17 @@
         <v>22</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
@@ -2276,17 +2244,17 @@
         <v>22</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
@@ -2294,17 +2262,17 @@
         <v>22</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>7</v>
       </c>
@@ -2312,17 +2280,17 @@
         <v>22</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>7</v>
       </c>
@@ -2330,17 +2298,17 @@
         <v>22</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>7</v>
       </c>
@@ -2348,17 +2316,17 @@
         <v>22</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>7</v>
       </c>
@@ -2366,17 +2334,17 @@
         <v>22</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>7</v>
       </c>
@@ -2384,17 +2352,17 @@
         <v>22</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
@@ -2402,17 +2370,17 @@
         <v>22</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>7</v>
       </c>
@@ -2420,17 +2388,17 @@
         <v>22</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
@@ -2438,17 +2406,17 @@
         <v>22</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>7</v>
       </c>
@@ -2456,47 +2424,49 @@
         <v>22</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="5"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>15</v>
       </c>
@@ -2504,18 +2474,18 @@
         <v>70</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F85"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D76:D1048576 D1:D74">
+  <conditionalFormatting sqref="D1:D74 D76:D1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
@@ -2532,29 +2502,29 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2376" windowWidth="21372" windowHeight="11268"/>
+    <workbookView xWindow="2925" yWindow="2370" windowWidth="21375" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$85</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="149">
   <si>
     <t>table</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>price_ratio_to_8week_rolling</t>
+  </si>
+  <si>
+    <t>h_dep</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>modeltype</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -584,7 +596,92 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -922,23 +1019,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="2" width="10.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -946,19 +1045,25 @@
         <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -966,19 +1071,25 @@
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -986,19 +1097,25 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -1006,19 +1123,25 @@
         <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -1026,19 +1149,25 @@
         <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -1046,19 +1175,25 @@
         <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -1066,19 +1201,25 @@
         <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -1086,19 +1227,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1106,293 +1253,383 @@
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>67</v>
       </c>
@@ -1400,15 +1637,21 @@
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="F24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>67</v>
       </c>
@@ -1416,15 +1659,21 @@
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="F25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -1432,15 +1681,21 @@
         <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="F26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -1448,501 +1703,669 @@
         <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="6"/>
       <c r="F28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="6"/>
       <c r="F29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="6"/>
       <c r="F30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="6"/>
       <c r="F31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="6"/>
       <c r="F32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="6"/>
       <c r="F33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -1950,15 +2373,21 @@
         <v>22</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>7</v>
       </c>
@@ -1966,15 +2395,21 @@
         <v>22</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>7</v>
       </c>
@@ -1982,15 +2417,21 @@
         <v>22</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
@@ -1998,15 +2439,21 @@
         <v>22</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>7</v>
       </c>
@@ -2014,15 +2461,21 @@
         <v>22</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>7</v>
       </c>
@@ -2030,15 +2483,21 @@
         <v>22</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
@@ -2046,15 +2505,21 @@
         <v>22</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -2062,15 +2527,23 @@
         <v>22</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
@@ -2078,15 +2551,23 @@
         <v>22</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
@@ -2094,15 +2575,23 @@
         <v>22</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>7</v>
       </c>
@@ -2110,15 +2599,23 @@
         <v>22</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>7</v>
       </c>
@@ -2126,15 +2623,23 @@
         <v>22</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>7</v>
       </c>
@@ -2142,15 +2647,23 @@
         <v>22</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>7</v>
       </c>
@@ -2158,139 +2671,189 @@
         <v>22</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6" t="s">
+      <c r="E70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6" t="s">
+      <c r="E72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6" t="s">
+      <c r="E73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6" t="s">
+      <c r="E74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6" t="s">
+      <c r="E75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>7</v>
       </c>
@@ -2298,143 +2861,191 @@
         <v>22</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6" t="s">
+      <c r="E76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6" t="s">
+      <c r="E78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6" t="s">
+      <c r="E79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6" t="s">
+      <c r="E80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="6"/>
+      <c r="E81" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
+      <c r="E82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6" t="s">
+      <c r="E83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>7</v>
       </c>
@@ -2442,62 +3053,88 @@
         <v>22</v>
       </c>
       <c r="C84" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6" t="s">
+      <c r="E84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="5" t="s">
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="5" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F85"/>
+  <autoFilter ref="A1:H85"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D74 D76:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="E1:F1 E85:F1048576 E76:E84 E2:E74">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76:F84 F2:F74">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2512,7 +3149,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2524,7 +3161,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2370" windowWidth="21375" windowHeight="11265"/>
+    <workbookView xWindow="2928" yWindow="2376" windowWidth="21372" windowHeight="11268"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$86</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="151">
   <si>
     <t>table</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>id_copy</t>
+  </si>
+  <si>
+    <t>id without suffix</t>
   </si>
 </sst>
 </file>
@@ -596,58 +602,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1019,25 +974,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="49.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -1141,7 +1096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -1167,7 +1122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -1193,7 +1148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -1245,7 +1200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1269,7 +1224,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -1295,7 +1250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1321,7 +1276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1347,7 +1302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1373,7 +1328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -1399,7 +1354,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -1425,7 +1380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -1473,7 +1428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +1480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1551,7 +1506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1577,7 +1532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -1603,7 +1558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -1629,7 +1584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>67</v>
       </c>
@@ -1651,7 +1606,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>67</v>
       </c>
@@ -1673,7 +1628,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -1695,7 +1650,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -1719,55 +1674,57 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -1778,7 +1735,7 @@
         <v>148</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>23</v>
@@ -1788,10 +1745,10 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +1759,7 @@
         <v>148</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>23</v>
@@ -1812,10 +1769,10 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1783,7 @@
         <v>148</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>23</v>
@@ -1836,10 +1793,10 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -1850,7 +1807,7 @@
         <v>148</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>23</v>
@@ -1860,149 +1817,149 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="5" t="s">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="5" t="s">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="E36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="5" t="s">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="E37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="5" t="s">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="E38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="5" t="s">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>28</v>
@@ -2015,7 +1972,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
@@ -2026,29 +1983,31 @@
         <v>148</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>4</v>
@@ -2059,7 +2018,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
@@ -2070,83 +2029,81 @@
         <v>148</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="E43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="5" t="s">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="E44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="5" t="s">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>28</v>
@@ -2159,7 +2116,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
@@ -2170,29 +2127,31 @@
         <v>148</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>4</v>
@@ -2203,7 +2162,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
@@ -2214,77 +2173,77 @@
         <v>148</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="E49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="E50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>4</v>
@@ -2295,7 +2254,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2265,7 @@
         <v>148</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>4</v>
@@ -2317,7 +2276,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
@@ -2328,66 +2287,66 @@
         <v>148</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="E54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="6" t="s">
+      <c r="E55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="6"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>7</v>
       </c>
@@ -2398,7 +2357,7 @@
         <v>146</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>4</v>
@@ -2409,7 +2368,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>7</v>
       </c>
@@ -2420,7 +2379,7 @@
         <v>146</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>4</v>
@@ -2431,7 +2390,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
@@ -2442,7 +2401,7 @@
         <v>146</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>4</v>
@@ -2453,7 +2412,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>7</v>
       </c>
@@ -2464,7 +2423,7 @@
         <v>146</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>4</v>
@@ -2475,7 +2434,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>7</v>
       </c>
@@ -2486,7 +2445,7 @@
         <v>146</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>4</v>
@@ -2497,7 +2456,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
@@ -2508,7 +2467,7 @@
         <v>146</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>4</v>
@@ -2519,7 +2478,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -2530,20 +2489,18 @@
         <v>146</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
@@ -2554,7 +2511,7 @@
         <v>146</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>28</v>
@@ -2567,7 +2524,7 @@
       </c>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2535,7 @@
         <v>146</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>28</v>
@@ -2591,7 +2548,7 @@
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2559,7 @@
         <v>146</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>28</v>
@@ -2615,7 +2572,7 @@
       </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2583,7 @@
         <v>146</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>28</v>
@@ -2639,7 +2596,7 @@
       </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>7</v>
       </c>
@@ -2650,7 +2607,7 @@
         <v>146</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>28</v>
@@ -2663,7 +2620,7 @@
       </c>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>7</v>
       </c>
@@ -2674,7 +2631,7 @@
         <v>146</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>28</v>
@@ -2687,7 +2644,7 @@
       </c>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>7</v>
       </c>
@@ -2697,19 +2654,21 @@
       <c r="C69" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>106</v>
+      <c r="D69" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
@@ -2720,7 +2679,7 @@
         <v>146</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>4</v>
@@ -2729,11 +2688,9 @@
         <v>4</v>
       </c>
       <c r="G70" s="6"/>
-      <c r="H70" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +2701,7 @@
         <v>146</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>4</v>
@@ -2753,11 +2710,11 @@
         <v>4</v>
       </c>
       <c r="G71" s="6"/>
-      <c r="H71" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
@@ -2768,7 +2725,7 @@
         <v>146</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>4</v>
@@ -2777,11 +2734,11 @@
         <v>4</v>
       </c>
       <c r="G72" s="6"/>
-      <c r="H72" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
@@ -2792,7 +2749,7 @@
         <v>146</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>4</v>
@@ -2802,10 +2759,10 @@
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
@@ -2816,7 +2773,7 @@
         <v>146</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>4</v>
@@ -2826,10 +2783,10 @@
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>7</v>
       </c>
@@ -2840,7 +2797,7 @@
         <v>146</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>4</v>
@@ -2853,7 +2810,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>7</v>
       </c>
@@ -2863,8 +2820,8 @@
       <c r="C76" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>118</v>
+      <c r="D76" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>4</v>
@@ -2874,10 +2831,10 @@
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>7</v>
       </c>
@@ -2887,8 +2844,8 @@
       <c r="C77" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>119</v>
+      <c r="D77" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>4</v>
@@ -2897,11 +2854,11 @@
         <v>4</v>
       </c>
       <c r="G77" s="6"/>
-      <c r="H77" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>7</v>
       </c>
@@ -2912,7 +2869,7 @@
         <v>146</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>4</v>
@@ -2921,11 +2878,11 @@
         <v>4</v>
       </c>
       <c r="G78" s="6"/>
-      <c r="H78" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>7</v>
       </c>
@@ -2936,7 +2893,7 @@
         <v>146</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>4</v>
@@ -2946,10 +2903,10 @@
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +2917,7 @@
         <v>146</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>4</v>
@@ -2970,10 +2927,10 @@
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>7</v>
       </c>
@@ -2984,7 +2941,7 @@
         <v>146</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>4</v>
@@ -2993,11 +2950,11 @@
         <v>4</v>
       </c>
       <c r="G81" s="6"/>
-      <c r="H81" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
@@ -3008,7 +2965,7 @@
         <v>146</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>4</v>
@@ -3017,11 +2974,11 @@
         <v>4</v>
       </c>
       <c r="G82" s="6"/>
-      <c r="H82" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>7</v>
       </c>
@@ -3032,7 +2989,7 @@
         <v>146</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>4</v>
@@ -3042,99 +2999,123 @@
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D84" s="11" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="6" t="s">
+      <c r="E85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="5" t="s">
+      <c r="G86" s="5"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="5" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H85"/>
+  <autoFilter ref="A1:H86"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1:F1 E85:F1048576 E76:E84 E2:E74">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+  <conditionalFormatting sqref="E86:F1048576 E77:E85 E29:E75 E1:F28">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:F84 F2:F74">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+  <conditionalFormatting sqref="F77:F85 F29:F75">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="F76">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3149,7 +3130,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3161,7 +3142,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA9DF8-681D-41B4-BD6B-7C6CBDA857F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2376" windowWidth="21372" windowHeight="11268"/>
+    <workbookView xWindow="2808" yWindow="2808" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -480,7 +481,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,7 +601,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -685,9 +686,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,9 +726,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,9 +761,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -795,9 +813,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -970,17 +1005,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -1428,7 +1463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1454,7 +1489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1480,7 +1515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1506,7 +1541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -1532,7 +1567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -1558,7 +1593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -1584,7 +1619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>67</v>
       </c>
@@ -1606,7 +1641,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>67</v>
       </c>
@@ -1628,7 +1663,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -1650,7 +1685,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -1679,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>148</v>
@@ -1700,7 +1735,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +1759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -1748,7 +1783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
@@ -1796,7 +1831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +1879,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1870,7 +1905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
@@ -1896,7 +1931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +1957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
@@ -1948,7 +1983,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
@@ -1972,7 +2007,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1996,7 +2031,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2053,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
@@ -2040,7 +2075,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2101,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
@@ -2092,7 +2127,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
@@ -2116,7 +2151,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2175,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>7</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
@@ -2184,7 +2219,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
@@ -2208,7 +2243,7 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2267,7 @@
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +2289,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2311,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
@@ -2298,7 +2333,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
@@ -2322,7 +2357,7 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2381,7 @@
       </c>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>7</v>
       </c>
@@ -2368,7 +2403,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>7</v>
       </c>
@@ -2390,7 +2425,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
@@ -2412,7 +2447,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2469,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>7</v>
       </c>
@@ -2456,7 +2491,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
@@ -2478,7 +2513,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2535,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
@@ -2524,7 +2559,7 @@
       </c>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
@@ -2548,7 +2583,7 @@
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>7</v>
       </c>
@@ -2572,7 +2607,7 @@
       </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>7</v>
       </c>
@@ -2596,7 +2631,7 @@
       </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>7</v>
       </c>
@@ -2620,7 +2655,7 @@
       </c>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>7</v>
       </c>
@@ -2644,7 +2679,7 @@
       </c>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>7</v>
       </c>
@@ -2668,7 +2703,7 @@
       </c>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2725,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>7</v>
       </c>
@@ -2714,7 +2749,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2773,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
@@ -2762,7 +2797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
@@ -2786,7 +2821,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>7</v>
       </c>
@@ -2810,7 +2845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>7</v>
       </c>
@@ -2834,7 +2869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>7</v>
       </c>
@@ -2858,7 +2893,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>7</v>
       </c>
@@ -2882,7 +2917,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>7</v>
       </c>
@@ -2906,7 +2941,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +2965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>7</v>
       </c>
@@ -2954,7 +2989,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
@@ -3085,7 +3120,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H86"/>
+  <autoFilter ref="A1:H86" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E86:F1048576 E77:E85 E29:E75 E1:F28">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
@@ -3125,24 +3160,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA9DF8-681D-41B4-BD6B-7C6CBDA857F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="2808" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="2808" windowWidth="17280" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -481,7 +480,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,7 +600,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -686,9 +685,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -726,9 +725,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,26 +760,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,26 +795,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1005,17 +970,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -1714,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>148</v>
@@ -3120,7 +3085,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H86" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H86"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E86:F1048576 E77:E85 E29:E75 E1:F28">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
@@ -3160,24 +3125,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATAMODEL_m5.xlsx
+++ b/DATAMODEL_m5.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$116</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="191">
   <si>
     <t>table</t>
   </si>
@@ -342,30 +342,15 @@
     <t>=1 if any holiday</t>
   </si>
   <si>
-    <t>demand_avg1week</t>
-  </si>
-  <si>
     <t>day_of_snap</t>
   </si>
   <si>
     <t>is in day_of_month</t>
   </si>
   <si>
-    <t>snap_avg1week</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>demand_avg2week</t>
-  </si>
-  <si>
-    <t>demand_avg4week</t>
-  </si>
-  <si>
-    <t>demand_avg12week</t>
-  </si>
-  <si>
     <t>snap is same per month -&gt; NO snap_avg4week</t>
   </si>
   <si>
@@ -378,36 +363,9 @@
     <t>approx. Quarter</t>
   </si>
   <si>
-    <t>demand_avg2week_sameweekday</t>
-  </si>
-  <si>
-    <t>demand_avg4week_sameweekday</t>
-  </si>
-  <si>
-    <t>demand_avg12week_sameweekday</t>
-  </si>
-  <si>
     <t>approx. Year</t>
   </si>
   <si>
-    <t>demand_avg48week</t>
-  </si>
-  <si>
-    <t>demand_avg48week_sameweekday</t>
-  </si>
-  <si>
-    <t>demand_avg2week_sameweekday_samesnap</t>
-  </si>
-  <si>
-    <t>demand_avg4week_sameweekday_samesnap</t>
-  </si>
-  <si>
-    <t>demand_avg12week_sameweekday_samesnap</t>
-  </si>
-  <si>
-    <t>demand_avg48week_sameweekday_samesnap</t>
-  </si>
-  <si>
     <t>demand_lag0</t>
   </si>
   <si>
@@ -450,9 +408,6 @@
     <t>snap_lag6</t>
   </si>
   <si>
-    <t>snap_avg2week</t>
-  </si>
-  <si>
     <t>take care of missing prices, i.e. remove</t>
   </si>
   <si>
@@ -475,6 +430,171 @@
   </si>
   <si>
     <t>id without suffix</t>
+  </si>
+  <si>
+    <t>demand_mean1week</t>
+  </si>
+  <si>
+    <t>demand_mean2week</t>
+  </si>
+  <si>
+    <t>demand_mean4week</t>
+  </si>
+  <si>
+    <t>demand_mean12week</t>
+  </si>
+  <si>
+    <t>demand_mean48week</t>
+  </si>
+  <si>
+    <t>demand_max1week</t>
+  </si>
+  <si>
+    <t>demand_max2week</t>
+  </si>
+  <si>
+    <t>demand_max4week</t>
+  </si>
+  <si>
+    <t>demand_max12week</t>
+  </si>
+  <si>
+    <t>demand_max48week</t>
+  </si>
+  <si>
+    <t>demand_min1week</t>
+  </si>
+  <si>
+    <t>demand_min2week</t>
+  </si>
+  <si>
+    <t>demand_min4week</t>
+  </si>
+  <si>
+    <t>demand_min12week</t>
+  </si>
+  <si>
+    <t>demand_min48week</t>
+  </si>
+  <si>
+    <t>snap_mean1week</t>
+  </si>
+  <si>
+    <t>snap_mean2week</t>
+  </si>
+  <si>
+    <t>demand_max2week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_max4week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_max12week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_max48week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_min2week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_min4week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_min12week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_min48week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_mean2week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_mean4week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_mean12week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_mean48week_sameweekday</t>
+  </si>
+  <si>
+    <t>demand_mean2week_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_mean4week_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_mean12week_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>demand_mean48week_sameweekday_samesnap</t>
+  </si>
+  <si>
+    <t>dito …</t>
+  </si>
+  <si>
+    <t>min_date</t>
+  </si>
+  <si>
+    <t>weight_sales</t>
+  </si>
+  <si>
+    <t>lagdemand</t>
+  </si>
+  <si>
+    <t>weight_rmse</t>
+  </si>
+  <si>
+    <t>weight_all</t>
+  </si>
+  <si>
+    <t>demand_mean</t>
+  </si>
+  <si>
+    <t>demand_sd</t>
+  </si>
+  <si>
+    <t>demand_upperlimit</t>
+  </si>
+  <si>
+    <t>encode_flag</t>
+  </si>
+  <si>
+    <t>fold_num</t>
+  </si>
+  <si>
+    <t>demand_normed</t>
+  </si>
+  <si>
+    <t>needed to calculate weight_rmse</t>
+  </si>
+  <si>
+    <t>maybe use for winsorizing</t>
+  </si>
+  <si>
+    <t>maybe use for normalizing</t>
+  </si>
+  <si>
+    <t>normed demand (by median/IQR or mean/SD)</t>
+  </si>
+  <si>
+    <t>used for target encoding (2011 data)</t>
+  </si>
+  <si>
+    <t>used to test data drift (test data = 1, train data = 0)</t>
+  </si>
+  <si>
+    <t>needed to calculate weight_sales</t>
+  </si>
+  <si>
+    <t>used as weight and for evaluation metric</t>
+  </si>
+  <si>
+    <t>needed for evaluation metric</t>
+  </si>
+  <si>
+    <t>combination of weight_sales and weight_rmse</t>
   </si>
 </sst>
 </file>
@@ -602,7 +722,262 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -974,10 +1349,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1009,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -1026,7 +1401,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
@@ -1052,7 +1427,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>30</v>
@@ -1078,7 +1453,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>31</v>
@@ -1104,7 +1479,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>32</v>
@@ -1130,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>38</v>
@@ -1156,7 +1531,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>33</v>
@@ -1182,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>34</v>
@@ -1208,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>42</v>
@@ -1232,7 +1607,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
@@ -1258,7 +1633,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>50</v>
@@ -1284,7 +1659,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>51</v>
@@ -1310,7 +1685,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>54</v>
@@ -1336,7 +1711,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>12</v>
@@ -1362,7 +1737,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>17</v>
@@ -1388,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>34</v>
@@ -1410,7 +1785,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>57</v>
@@ -1436,7 +1811,7 @@
         <v>70</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>58</v>
@@ -1462,7 +1837,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>59</v>
@@ -1488,7 +1863,7 @@
         <v>70</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>60</v>
@@ -1514,7 +1889,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>63</v>
@@ -1540,7 +1915,7 @@
         <v>70</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>64</v>
@@ -1566,7 +1941,7 @@
         <v>70</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>65</v>
@@ -1592,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>38</v>
@@ -1614,7 +1989,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>30</v>
@@ -1636,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>50</v>
@@ -1658,7 +2033,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>68</v>
@@ -1682,10 +2057,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>28</v>
@@ -1697,7 +2072,7 @@
         <v>43</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1708,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>75</v>
@@ -1732,10 +2107,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>23</v>
@@ -1745,7 +2120,7 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="5" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1756,10 +2131,10 @@
         <v>22</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>23</v>
@@ -1769,7 +2144,7 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1780,10 +2155,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>23</v>
@@ -1793,7 +2168,7 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1804,10 +2179,10 @@
         <v>22</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>23</v>
@@ -1817,7 +2192,7 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="5" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1828,10 +2203,10 @@
         <v>22</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>23</v>
@@ -1841,7 +2216,7 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="5" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1852,22 +2227,20 @@
         <v>22</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="5" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1875,25 +2248,23 @@
         <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="5" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1904,22 +2275,20 @@
         <v>22</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="5" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1930,22 +2299,20 @@
         <v>22</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>89</v>
+        <v>23</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1956,21 +2323,21 @@
         <v>22</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -1980,21 +2347,21 @@
         <v>22</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -2004,19 +2371,21 @@
         <v>22</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="5"/>
+      <c r="H41" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -2026,21 +2395,23 @@
         <v>22</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H42" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
@@ -2048,22 +2419,20 @@
         <v>22</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="5" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2074,22 +2443,20 @@
         <v>22</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>105</v>
+        <v>23</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2100,21 +2467,21 @@
         <v>22</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
@@ -2123,21 +2490,17 @@
       <c r="B46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="C46" s="7"/>
       <c r="D46" s="5" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2148,19 +2511,23 @@
         <v>22</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
@@ -2170,19 +2537,23 @@
         <v>22</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
@@ -2192,10 +2563,10 @@
         <v>22</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>28</v>
@@ -2204,9 +2575,11 @@
         <v>28</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
@@ -2216,10 +2589,10 @@
         <v>22</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>28</v>
@@ -2230,7 +2603,9 @@
       <c r="G50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
@@ -2240,18 +2615,20 @@
         <v>22</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2262,18 +2639,20 @@
         <v>22</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2284,10 +2663,10 @@
         <v>22</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>4</v>
@@ -2306,23 +2685,21 @@
         <v>22</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -2330,10 +2707,10 @@
         <v>22</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>28</v>
@@ -2342,9 +2719,11 @@
         <v>28</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -2353,20 +2732,24 @@
       <c r="B56" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>146</v>
+      <c r="C56" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
@@ -2375,19 +2758,21 @@
       <c r="B57" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>146</v>
+      <c r="C57" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2397,19 +2782,21 @@
       <c r="B58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>146</v>
+      <c r="C58" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2419,11 +2806,11 @@
       <c r="B59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>146</v>
+      <c r="C59" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>4</v>
@@ -2441,11 +2828,11 @@
       <c r="B60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>146</v>
+      <c r="C60" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>4</v>
@@ -2463,19 +2850,21 @@
       <c r="B61" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>146</v>
+      <c r="C61" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2485,19 +2874,21 @@
       <c r="B62" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>146</v>
+      <c r="C62" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2507,21 +2898,19 @@
       <c r="B63" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>146</v>
+      <c r="C63" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G63" s="6"/>
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2531,21 +2920,19 @@
       <c r="B64" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>146</v>
+      <c r="C64" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G64" s="6"/>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2555,21 +2942,19 @@
       <c r="B65" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>146</v>
+      <c r="C65" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G65" s="6"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2579,20 +2964,20 @@
       <c r="B66" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>146</v>
+      <c r="C66" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H66" s="5"/>
     </row>
@@ -2603,20 +2988,20 @@
       <c r="B67" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>146</v>
+      <c r="C67" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H67" s="5"/>
     </row>
@@ -2628,20 +3013,18 @@
         <v>22</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G68" s="6"/>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2652,20 +3035,18 @@
         <v>22</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G69" s="6"/>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2676,10 +3057,10 @@
         <v>22</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>106</v>
+        <v>131</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>4</v>
@@ -2688,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
@@ -2698,10 +3079,10 @@
         <v>22</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>111</v>
+        <v>131</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>4</v>
@@ -2710,9 +3091,7 @@
         <v>4</v>
       </c>
       <c r="G71" s="6"/>
-      <c r="H71" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="H71" s="5"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
@@ -2722,10 +3101,10 @@
         <v>22</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>112</v>
+        <v>131</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>4</v>
@@ -2734,9 +3113,7 @@
         <v>4</v>
       </c>
       <c r="G72" s="6"/>
-      <c r="H72" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="H72" s="5"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
@@ -2746,10 +3123,10 @@
         <v>22</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>113</v>
+        <v>131</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>4</v>
@@ -2758,9 +3135,7 @@
         <v>4</v>
       </c>
       <c r="G73" s="6"/>
-      <c r="H73" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="H73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
@@ -2770,10 +3145,10 @@
         <v>22</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>122</v>
+        <v>131</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>4</v>
@@ -2782,9 +3157,7 @@
         <v>4</v>
       </c>
       <c r="G74" s="6"/>
-      <c r="H74" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="H74" s="5"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
@@ -2794,21 +3167,21 @@
         <v>22</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>109</v>
+        <v>131</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="G75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="5"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
@@ -2818,21 +3191,21 @@
         <v>22</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="G76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="5"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
@@ -2842,21 +3215,21 @@
         <v>22</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="G77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
@@ -2866,21 +3239,21 @@
         <v>22</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>119</v>
+        <v>131</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="G78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
@@ -2890,21 +3263,21 @@
         <v>22</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>120</v>
+        <v>131</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="G79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
@@ -2914,21 +3287,21 @@
         <v>22</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="G80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="5"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
@@ -2938,21 +3311,21 @@
         <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="G81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
@@ -2962,10 +3335,10 @@
         <v>22</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>4</v>
@@ -2974,9 +3347,7 @@
         <v>4</v>
       </c>
       <c r="G82" s="6"/>
-      <c r="H82" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
@@ -2986,10 +3357,10 @@
         <v>22</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>4</v>
@@ -2999,7 +3370,7 @@
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3010,112 +3381,864 @@
         <v>22</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="11" t="s">
+      <c r="E92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+      <c r="E94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" s="6"/>
+      <c r="H112" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="5"/>
+      <c r="H115" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8" t="s">
+      <c r="B116" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B117" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="5" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H86"/>
+  <autoFilter ref="A1:H116"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E86:F1048576 E77:E85 E29:E75 E1:F28">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="E116:F1048576 E99:E102 E97 E111:E115 E1:F86">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:F85 F29:F75">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="F99:F102 F97 F111:F115">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="F98">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>"metr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E91">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:F91">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:E96">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F96">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103:E106">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:F106">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107:E110">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107:F110">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"metr"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"cate"</formula>
     </cfRule>
   </conditionalFormatting>
